--- a/brownbag-vue/public/ClassGenerator.xlsx
+++ b/brownbag-vue/public/ClassGenerator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\git\brownbag-vue\brownbag-vue\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56EB8C5B-8225-4CEE-B200-F24EDE1F4E5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ADAF76-AE1B-4580-BF71-3878A7923D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{52B49B83-D760-4AA3-B2A9-CE396A121A70}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>id=null;</t>
   </si>
@@ -81,14 +81,40 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>partyId=null;</t>
+  </si>
+  <si>
+    <t>partyName=null;</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t>Constructor Content</t>
+  </si>
+  <si>
+    <t>Getter &amp; Setter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,358 +459,386 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225B29CD-F9D6-484D-8BA6-9E25985DBE4A}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="str">
-        <f>LEFT(A1,FIND("=",A1) - 1)</f>
-        <v>id</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="str">
-        <f>"this."&amp;B1&amp;" = "&amp;B1&amp;";"</f>
-        <v>this.id = id;</v>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B15" si="0">LEFT(A2,FIND("=",A2) - 1)</f>
-        <v>qty</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" ref="E2:E15" si="1">"this."&amp;B2&amp;" = "&amp;B2&amp;";"</f>
-        <v>this.qty = qty;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>orderType</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" si="1"/>
-        <v>this.orderType = orderType;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>orderStatus</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>this.orderStatus = orderStatus;</v>
+      <c r="A2" t="str">
+        <f>_xlfn.CONCAT(B5:C21)</f>
+        <v>id,qty,orderType,orderStatus,advText,asset,timestampCreate,timestampModified,user,maccLender,maccDebtor,posLoanLender,posLoanBorrower,matDate,intrRate,partyId,partyName,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>advText</v>
+        <f>LEFT(A5,FIND("=",A5) - 1)</f>
+        <v>id</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
+      <c r="D5" t="str">
+        <f>"this."&amp;B5&amp;" = "&amp;B5&amp;";"</f>
+        <v>this.id = id;</v>
+      </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>this.advText = advText;</v>
+        <f>"get"&amp;UPPER(LEFT(B5,1))&amp;MID(B5,2,100)&amp;"() { return this."&amp;B5&amp;"; }"&amp;CHAR(13)&amp;" set"&amp;UPPER(LEFT(B5,1))&amp;MID(B5,2,100)&amp;"("&amp;B5&amp;") { this."&amp;B5&amp;" = "&amp;B5&amp;"; }"&amp;CHAR(13)</f>
+        <v>getId() { return this.id; }_x000D_ setId(id) { this.id = id; }_x000D_</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>asset</v>
+        <f t="shared" ref="B6:B19" si="0">LEFT(A6,FIND("=",A6) - 1)</f>
+        <v>qty</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" t="str">
+        <f t="shared" ref="D6:D19" si="1">"this."&amp;B6&amp;" = "&amp;B6&amp;";"</f>
+        <v>this.qty = qty;</v>
+      </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>this.asset = asset;</v>
+        <f t="shared" ref="E6:E21" si="2">"get"&amp;UPPER(LEFT(B6,1))&amp;MID(B6,2,100)&amp;"() { return this."&amp;B6&amp;"; }"&amp;CHAR(13)&amp;" set"&amp;UPPER(LEFT(B6,1))&amp;MID(B6,2,100)&amp;"("&amp;B6&amp;") { this."&amp;B6&amp;" = "&amp;B6&amp;"; }"&amp;CHAR(13)</f>
+        <v>getQty() { return this.qty; }_x000D_ setQty(qty) { this.qty = qty; }_x000D_</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>timestampCreate</v>
+        <v>orderType</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>this.orderType = orderType;</v>
+      </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>this.timestampCreate = timestampCreate;</v>
+        <f t="shared" si="2"/>
+        <v>getOrderType() { return this.orderType; }_x000D_ setOrderType(orderType) { this.orderType = orderType; }_x000D_</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>timestampModified</v>
+        <v>orderStatus</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>this.orderStatus = orderStatus;</v>
+      </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>this.timestampModified = timestampModified;</v>
+        <f t="shared" si="2"/>
+        <v>getOrderStatus() { return this.orderStatus; }_x000D_ setOrderStatus(orderStatus) { this.orderStatus = orderStatus; }_x000D_</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>user</v>
+        <v>advText</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>this.advText = advText;</v>
+      </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>this.user = user;</v>
+        <f t="shared" si="2"/>
+        <v>getAdvText() { return this.advText; }_x000D_ setAdvText(advText) { this.advText = advText; }_x000D_</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>maccLender</v>
+        <v>asset</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>this.asset = asset;</v>
+      </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>this.maccLender = maccLender;</v>
+        <f t="shared" si="2"/>
+        <v>getAsset() { return this.asset; }_x000D_ setAsset(asset) { this.asset = asset; }_x000D_</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>maccDebtor</v>
+        <v>timestampCreate</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>this.timestampCreate = timestampCreate;</v>
+      </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>this.maccDebtor = maccDebtor;</v>
+        <f t="shared" si="2"/>
+        <v>getTimestampCreate() { return this.timestampCreate; }_x000D_ setTimestampCreate(timestampCreate) { this.timestampCreate = timestampCreate; }_x000D_</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>posLoanLender</v>
+        <v>timestampModified</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>this.timestampModified = timestampModified;</v>
+      </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>this.posLoanLender = posLoanLender;</v>
+        <f t="shared" si="2"/>
+        <v>getTimestampModified() { return this.timestampModified; }_x000D_ setTimestampModified(timestampModified) { this.timestampModified = timestampModified; }_x000D_</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>posLoanBorrower</v>
+        <v>user</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>this.user = user;</v>
+      </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>this.posLoanBorrower = posLoanBorrower;</v>
+        <f t="shared" si="2"/>
+        <v>getUser() { return this.user; }_x000D_ setUser(user) { this.user = user; }_x000D_</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>matDate</v>
+        <v>maccLender</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>this.maccLender = maccLender;</v>
+      </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>this.matDate = matDate;</v>
+        <f t="shared" si="2"/>
+        <v>getMaccLender() { return this.maccLender; }_x000D_ setMaccLender(maccLender) { this.maccLender = maccLender; }_x000D_</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>maccDebtor</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>this.maccDebtor = maccDebtor;</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="2"/>
+        <v>getMaccDebtor() { return this.maccDebtor; }_x000D_ setMaccDebtor(maccDebtor) { this.maccDebtor = maccDebtor; }_x000D_</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>posLoanLender</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="1"/>
+        <v>this.posLoanLender = posLoanLender;</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="2"/>
+        <v>getPosLoanLender() { return this.posLoanLender; }_x000D_ setPosLoanLender(posLoanLender) { this.posLoanLender = posLoanLender; }_x000D_</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>posLoanBorrower</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="1"/>
+        <v>this.posLoanBorrower = posLoanBorrower;</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="2"/>
+        <v>getPosLoanBorrower() { return this.posLoanBorrower; }_x000D_ setPosLoanBorrower(posLoanBorrower) { this.posLoanBorrower = posLoanBorrower; }_x000D_</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>matDate</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="1"/>
+        <v>this.matDate = matDate;</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="2"/>
+        <v>getMatDate() { return this.matDate; }_x000D_ setMatDate(matDate) { this.matDate = matDate; }_x000D_</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>intrRate</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="str">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v>this.intrRate = intrRate;</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>_xlfn.CONCAT(B1:C15)</f>
-        <v>id,qty,orderType,orderStatus,advText,asset,timestampCreate,timestampModified,user,maccLender,maccDebtor,posLoanLender,posLoanBorrower,matDate,intrRate,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
-        <f>"get"&amp;UPPER(LEFT(B1,1))&amp;MID(B1,2,100)&amp;"() { return this."&amp;B1&amp;"; }"</f>
-        <v>getId() { return this.id; }</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f t="shared" si="2"/>
+        <v>getIntrRate() { return this.intrRate; }_x000D_ setIntrRate(intrRate) { this.intrRate = intrRate; }_x000D_</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
       <c r="B20" t="str">
-        <f>"set"&amp;UPPER(LEFT(B1,1))&amp;MID(B1,2,100)&amp;"("&amp;B1&amp;") { this."&amp;B1&amp;" = "&amp;B1&amp;"; }"</f>
-        <v>setId(id) { this.id = id; }</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B20:B21" si="3">LEFT(A20,FIND("=",A20) - 1)</f>
+        <v>partyId</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ref="D20:D21" si="4">"this."&amp;B20&amp;" = "&amp;B20&amp;";"</f>
+        <v>this.partyId = partyId;</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="2"/>
+        <v>getPartyId() { return this.partyId; }_x000D_ setPartyId(partyId) { this.partyId = partyId; }_x000D_</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
       <c r="B21" t="str">
-        <f t="shared" ref="B21" si="2">"get"&amp;UPPER(LEFT(B3,1))&amp;MID(B3,2,100)&amp;"() { return this."&amp;B3&amp;"; }"</f>
-        <v>getOrderType() { return this.orderType; }</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
-        <f t="shared" ref="B22" si="3">"set"&amp;UPPER(LEFT(B3,1))&amp;MID(B3,2,100)&amp;"("&amp;B3&amp;") { this."&amp;B3&amp;" = "&amp;B3&amp;"; }"</f>
-        <v>setOrderType(orderType) { this.orderType = orderType; }</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="str">
-        <f t="shared" ref="B23" si="4">"get"&amp;UPPER(LEFT(B5,1))&amp;MID(B5,2,100)&amp;"() { return this."&amp;B5&amp;"; }"</f>
-        <v>getAdvText() { return this.advText; }</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="str">
-        <f t="shared" ref="B24" si="5">"set"&amp;UPPER(LEFT(B5,1))&amp;MID(B5,2,100)&amp;"("&amp;B5&amp;") { this."&amp;B5&amp;" = "&amp;B5&amp;"; }"</f>
-        <v>setAdvText(advText) { this.advText = advText; }</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="str">
-        <f t="shared" ref="B25" si="6">"get"&amp;UPPER(LEFT(B7,1))&amp;MID(B7,2,100)&amp;"() { return this."&amp;B7&amp;"; }"</f>
-        <v>getTimestampCreate() { return this.timestampCreate; }</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
-        <f t="shared" ref="B26" si="7">"set"&amp;UPPER(LEFT(B7,1))&amp;MID(B7,2,100)&amp;"("&amp;B7&amp;") { this."&amp;B7&amp;" = "&amp;B7&amp;"; }"</f>
-        <v>setTimestampCreate(timestampCreate) { this.timestampCreate = timestampCreate; }</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
-        <f t="shared" ref="B27" si="8">"get"&amp;UPPER(LEFT(B9,1))&amp;MID(B9,2,100)&amp;"() { return this."&amp;B9&amp;"; }"</f>
-        <v>getUser() { return this.user; }</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="str">
-        <f t="shared" ref="B28" si="9">"set"&amp;UPPER(LEFT(B9,1))&amp;MID(B9,2,100)&amp;"("&amp;B9&amp;") { this."&amp;B9&amp;" = "&amp;B9&amp;"; }"</f>
-        <v>setUser(user) { this.user = user; }</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="str">
-        <f t="shared" ref="B29" si="10">"get"&amp;UPPER(LEFT(B11,1))&amp;MID(B11,2,100)&amp;"() { return this."&amp;B11&amp;"; }"</f>
-        <v>getMaccDebtor() { return this.maccDebtor; }</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="str">
-        <f t="shared" ref="B30" si="11">"set"&amp;UPPER(LEFT(B11,1))&amp;MID(B11,2,100)&amp;"("&amp;B11&amp;") { this."&amp;B11&amp;" = "&amp;B11&amp;"; }"</f>
-        <v>setMaccDebtor(maccDebtor) { this.maccDebtor = maccDebtor; }</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" t="str">
-        <f t="shared" ref="B31" si="12">"get"&amp;UPPER(LEFT(B13,1))&amp;MID(B13,2,100)&amp;"() { return this."&amp;B13&amp;"; }"</f>
-        <v>getPosLoanBorrower() { return this.posLoanBorrower; }</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" t="str">
-        <f t="shared" ref="B32" si="13">"set"&amp;UPPER(LEFT(B13,1))&amp;MID(B13,2,100)&amp;"("&amp;B13&amp;") { this."&amp;B13&amp;" = "&amp;B13&amp;"; }"</f>
-        <v>setPosLoanBorrower(posLoanBorrower) { this.posLoanBorrower = posLoanBorrower; }</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="str">
-        <f t="shared" ref="B33" si="14">"get"&amp;UPPER(LEFT(B15,1))&amp;MID(B15,2,100)&amp;"() { return this."&amp;B15&amp;"; }"</f>
-        <v>getIntrRate() { return this.intrRate; }</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="str">
-        <f t="shared" ref="B34" si="15">"set"&amp;UPPER(LEFT(B15,1))&amp;MID(B15,2,100)&amp;"("&amp;B15&amp;") { this."&amp;B15&amp;" = "&amp;B15&amp;"; }"</f>
-        <v>setIntrRate(intrRate) { this.intrRate = intrRate; }</v>
+        <f t="shared" si="3"/>
+        <v>partyName</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="4"/>
+        <v>this.partyName = partyName;</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="2"/>
+        <v>getPartyName() { return this.partyName; }_x000D_ setPartyName(partyName) { this.partyName = partyName; }_x000D_</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1005,18 +1060,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1039,14 +1094,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997AB4CE-BAB0-4DBE-933A-1504189A8D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B5D460D-597E-406F-AC02-8BBEBF723BD2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1061,4 +1108,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{997AB4CE-BAB0-4DBE-933A-1504189A8D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>